--- a/TIEMPOS MEDIOS.xlsx
+++ b/TIEMPOS MEDIOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nuri\Desktop\Máster\HerramientasHTMLyCSSI\pec3\pec3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA1EE3B-306A-4DF5-BEC5-DAD9F7537A7C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA99447F-687F-4F7A-B478-32526E0F3005}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEDIA" sheetId="1" r:id="rId1"/>
@@ -73,27 +73,9 @@
     <t>TAMAÑO TOTAL</t>
   </si>
   <si>
-    <t>325,26 KB</t>
-  </si>
-  <si>
-    <t>327,72 KB</t>
-  </si>
-  <si>
-    <t>3,77 MB</t>
-  </si>
-  <si>
     <t>SOLICITUDES</t>
   </si>
   <si>
-    <t>4,72 MB</t>
-  </si>
-  <si>
-    <t>372,09 KB</t>
-  </si>
-  <si>
-    <t>359,61 KB</t>
-  </si>
-  <si>
     <t>Antes de optimizar</t>
   </si>
   <si>
@@ -158,6 +140,24 @@
   </si>
   <si>
     <t>https://desarrollo-front-end-ncs-optim.netlify.app/pages/module_webpack.html</t>
+  </si>
+  <si>
+    <t>18,42 KB</t>
+  </si>
+  <si>
+    <t>32,06 KB</t>
+  </si>
+  <si>
+    <t>417,5 KB</t>
+  </si>
+  <si>
+    <t>581,65 KB</t>
+  </si>
+  <si>
+    <t>29,73 KB</t>
+  </si>
+  <si>
+    <t>59,14 KB</t>
   </si>
 </sst>
 </file>
@@ -402,10 +402,10 @@
   <autoFilter ref="A2:E8" xr:uid="{1FE6EB88-5326-4231-9A2B-C8678B9E6419}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1171A01-5A13-4D03-AD36-7FD5A0A43F18}" name="PÁGINA"/>
-    <tableColumn id="2" xr3:uid="{7A56A61E-B586-4AC3-8B7A-2F9E52B04AFE}" name="PUNTOS PAGESPEED" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{7A56A61E-B586-4AC3-8B7A-2F9E52B04AFE}" name="PUNTOS PAGESPEED" dataDxfId="12">
       <calculatedColumnFormula>Tabla1[[#Totals],[PUNTOS PAGESPEED]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1FB1E2B9-9AFA-4EF9-AC51-268CE144000E}" name="TIEMPO TOTAL (s)" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{1FB1E2B9-9AFA-4EF9-AC51-268CE144000E}" name="TIEMPO TOTAL (s)" dataDxfId="11">
       <calculatedColumnFormula>Tabla1[[#Totals],[TIEMPO TOTAL (s)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{B28AE617-1880-4107-A5C2-150FBE350D51}" name="TAMAÑO TOTAL"/>
@@ -420,10 +420,10 @@
   <autoFilter ref="A1:C8" xr:uid="{E677CE87-9CC2-44A2-80DD-F8C765734A03}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{19CB96D7-CE26-433E-892A-12B8F57C529A}" name="JAVASCRIPT"/>
-    <tableColumn id="2" xr3:uid="{0212AED8-199D-4407-87CD-586663F4C305}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="10">
+    <tableColumn id="2" xr3:uid="{0212AED8-199D-4407-87CD-586663F4C305}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="5">
       <totalsRowFormula>AVERAGE(B2:B3,B5:B7)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0E253FCA-E165-4970-93C9-6285405A1228}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="9">
+    <tableColumn id="3" xr3:uid="{0E253FCA-E165-4970-93C9-6285405A1228}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="4">
       <totalsRowFormula>AVERAGE(C3:C5,C7:C8)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -448,10 +448,10 @@
   <autoFilter ref="A1:C8" xr:uid="{5ABD97B1-5812-4C78-983B-3BE58FD68798}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{307B5A5E-CC29-4CCA-AE91-AAF8343976A9}" name="MODULE"/>
-    <tableColumn id="2" xr3:uid="{784B6B75-E779-4233-9364-1450CCD16C06}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{784B6B75-E779-4233-9364-1450CCD16C06}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="3">
       <totalsRowFormula>AVERAGE(B4:B8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{798A7841-41BD-47D2-83AB-BC430BEF564F}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{798A7841-41BD-47D2-83AB-BC430BEF564F}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="2">
       <totalsRowFormula>AVERAGE(C2:C5,C7)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -476,10 +476,10 @@
   <autoFilter ref="A1:C8" xr:uid="{34251A6F-ECD5-4207-9231-370F356902F6}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E3EB2D14-3EE7-4357-B85C-342F2AF8ABDB}" name="WEBPACK"/>
-    <tableColumn id="2" xr3:uid="{F8C18F40-2707-40E1-BBE7-01CA1F350128}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{F8C18F40-2707-40E1-BBE7-01CA1F350128}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="1">
       <totalsRowFormula>AVERAGE(B3,B5,B6,B7,B8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{377CBE25-FE7B-4CEF-A4C1-0D19CC4B9F88}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{377CBE25-FE7B-4CEF-A4C1-0D19CC4B9F88}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="0">
       <totalsRowFormula>AVERAGE(C3:C4,C6:C8)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -517,12 +517,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{225F1CA2-E599-489B-945E-A749518F8661}" name="Tabla2" displayName="Tabla2" ref="A12:C19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{225F1CA2-E599-489B-945E-A749518F8661}" name="Tabla2" displayName="Tabla2" ref="A12:C20" totalsRowCount="1">
   <autoFilter ref="A12:C19" xr:uid="{CEBA18D0-A43A-4467-94E1-67B848984419}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BD298658-FEB9-4B6C-8745-46A667C5A4FA}" name="INICIO"/>
-    <tableColumn id="2" xr3:uid="{934D60B0-78CC-4E71-9372-1D31D6734362}" name="PUNTOS PAGESPEED"/>
-    <tableColumn id="3" xr3:uid="{22FB50AC-63BC-4869-9314-947355F873FB}" name="TIEMPO TOTAL"/>
+    <tableColumn id="2" xr3:uid="{934D60B0-78CC-4E71-9372-1D31D6734362}" name="PUNTOS PAGESPEED" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(B13:B17,B19)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{22FB50AC-63BC-4869-9314-947355F873FB}" name="TIEMPO TOTAL" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(C14,C16:C19)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -536,7 +540,7 @@
     <tableColumn id="2" xr3:uid="{DD524206-3874-4DCD-B179-A48B51A4296A}" name="PUNTOS PAGESPEED" totalsRowFunction="custom">
       <totalsRowFormula>AVERAGE(B3,B5,B6,B7,B8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{411C1FE7-EDA6-459C-A60F-461DD2CED01D}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{411C1FE7-EDA6-459C-A60F-461DD2CED01D}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="10">
       <totalsRowFormula>AVERAGE(C3:C6,C8)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -545,12 +549,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C56734B5-E9F9-4626-B379-5B996E4CBF19}" name="Tabla26" displayName="Tabla26" ref="A12:C19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C56734B5-E9F9-4626-B379-5B996E4CBF19}" name="Tabla26" displayName="Tabla26" ref="A12:C20" totalsRowCount="1">
   <autoFilter ref="A12:C19" xr:uid="{6FC7A08D-8A2E-4BB8-B25B-9B27339C37DC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{99B58B2E-F92A-47B9-8D38-1FF557AD0D40}" name="LENGUAJES"/>
     <tableColumn id="2" xr3:uid="{ABFE2785-A926-4AC0-B935-AEEFC365D87B}" name="PUNTOS PAGESPEED"/>
-    <tableColumn id="3" xr3:uid="{6D010EFD-8B7E-4EC9-AC1E-CC93514CACBC}" name="TIEMPO TOTAL"/>
+    <tableColumn id="3" xr3:uid="{6D010EFD-8B7E-4EC9-AC1E-CC93514CACBC}" name="TIEMPO TOTAL" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(C13:C14,C17:C19)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -561,10 +567,10 @@
   <autoFilter ref="A1:C8" xr:uid="{399A8C92-7F0E-4481-BB47-4882E25108B0}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{825349D6-8038-4658-9BD2-2D21EEC69E10}" name="LENGUAJES"/>
-    <tableColumn id="2" xr3:uid="{85A5ADA4-0E0C-437E-B9AB-30C8E6B9F12B}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{85A5ADA4-0E0C-437E-B9AB-30C8E6B9F12B}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="9">
       <totalsRowFormula>AVERAGE(B2,B3,B5,B7,B8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E7E55CF4-5127-4C3A-915A-57C2386514C0}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{E7E55CF4-5127-4C3A-915A-57C2386514C0}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="8">
       <totalsRowFormula>AVERAGE(C4:C8)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -589,10 +595,10 @@
   <autoFilter ref="A1:C8" xr:uid="{21CDD063-BF88-4351-AF0B-29D5861077FB}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FFE5DC52-F1B5-47E8-B248-4531DA43FEEC}" name="HTML"/>
-    <tableColumn id="2" xr3:uid="{B3D05C71-D6FC-4B90-BAB9-7A06462FD093}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{B3D05C71-D6FC-4B90-BAB9-7A06462FD093}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="7">
       <totalsRowFormula>AVERAGE(B3:B4,B6:B8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{347FA04E-6676-4CE3-A32F-CF2AD9FD8F07}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{347FA04E-6676-4CE3-A32F-CF2AD9FD8F07}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="6">
       <totalsRowFormula>AVERAGE(C3:C6,C8)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -878,7 +884,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,7 +898,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -903,13 +909,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -925,7 +931,7 @@
         <v>0.41999999999999993</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -944,7 +950,7 @@
         <v>0.41600000000000004</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>11</v>
@@ -963,7 +969,7 @@
         <v>1.61</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -982,7 +988,7 @@
         <v>1.256</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>23</v>
@@ -1001,7 +1007,7 @@
         <v>0.82</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -1020,7 +1026,7 @@
         <v>0.38399999999999995</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>12</v>
@@ -1045,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1053,10 +1059,10 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1064,10 +1070,10 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1075,10 +1081,10 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1086,10 +1092,10 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1097,10 +1103,10 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1108,10 +1114,10 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1126,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C302EAE1-C63E-4BFB-8FCC-2B40EF06AA49}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1148,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1258,35 +1264,87 @@
       <c r="A13">
         <v>1</v>
       </c>
+      <c r="B13">
+        <v>96</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
+      <c r="B14">
+        <v>96</v>
+      </c>
+      <c r="C14">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
+      <c r="B15">
+        <v>96</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>96</v>
+      </c>
+      <c r="C16">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>96</v>
+      </c>
+      <c r="C17">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>97</v>
+      </c>
+      <c r="C18">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7</v>
+      </c>
+      <c r="B19">
+        <v>96</v>
+      </c>
+      <c r="C19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f>AVERAGE(B13:B17,B19)</f>
+        <v>96</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(C14,C16:C19)</f>
+        <v>0.27200000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1300,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5552BD-942D-4201-BEA9-A9BBD09D9930}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1315,13 +1373,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1418,7 +1476,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1430,43 +1488,89 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
+      </c>
+      <c r="B13">
+        <v>97</v>
+      </c>
+      <c r="C13">
+        <v>0.39</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
+      <c r="B14">
+        <v>96</v>
+      </c>
+      <c r="C14">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
+      <c r="B15">
+        <v>96</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>96</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>96</v>
+      </c>
+      <c r="C17">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>95</v>
+      </c>
+      <c r="C18">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7</v>
       </c>
+      <c r="C19">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <f>AVERAGE(C13:C14,C17:C19)</f>
+        <v>0.40800000000000003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1475,7 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7656C94A-2265-47AA-9E4D-D77DC8B281FB}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1494,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1667,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1834,13 +1938,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1937,7 +2041,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2013,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2167,7 +2271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F92CAB-545C-4EC0-893D-4D6B1A8830F3}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -2183,22 +2287,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2206,7 +2310,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2214,7 +2318,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2222,7 +2326,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2230,7 +2334,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2238,7 +2342,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2246,7 +2350,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/TIEMPOS MEDIOS.xlsx
+++ b/TIEMPOS MEDIOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nuri\Desktop\Máster\HerramientasHTMLyCSSI\pec3\pec3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA99447F-687F-4F7A-B478-32526E0F3005}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C91ECA0-D3E3-46A3-A6D4-03E78FD882E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEDIA" sheetId="1" r:id="rId1"/>
@@ -145,12 +145,6 @@
     <t>18,42 KB</t>
   </si>
   <si>
-    <t>32,06 KB</t>
-  </si>
-  <si>
-    <t>417,5 KB</t>
-  </si>
-  <si>
     <t>581,65 KB</t>
   </si>
   <si>
@@ -158,6 +152,12 @@
   </si>
   <si>
     <t>59,14 KB</t>
+  </si>
+  <si>
+    <t>26,38 KB</t>
+  </si>
+  <si>
+    <t>596,81 KB</t>
   </si>
 </sst>
 </file>
@@ -223,7 +223,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -402,10 +408,10 @@
   <autoFilter ref="A2:E8" xr:uid="{1FE6EB88-5326-4231-9A2B-C8678B9E6419}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1171A01-5A13-4D03-AD36-7FD5A0A43F18}" name="PÁGINA"/>
-    <tableColumn id="2" xr3:uid="{7A56A61E-B586-4AC3-8B7A-2F9E52B04AFE}" name="PUNTOS PAGESPEED" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{7A56A61E-B586-4AC3-8B7A-2F9E52B04AFE}" name="PUNTOS PAGESPEED" dataDxfId="14">
       <calculatedColumnFormula>Tabla1[[#Totals],[PUNTOS PAGESPEED]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1FB1E2B9-9AFA-4EF9-AC51-268CE144000E}" name="TIEMPO TOTAL (s)" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{1FB1E2B9-9AFA-4EF9-AC51-268CE144000E}" name="TIEMPO TOTAL (s)" dataDxfId="13">
       <calculatedColumnFormula>Tabla1[[#Totals],[TIEMPO TOTAL (s)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{B28AE617-1880-4107-A5C2-150FBE350D51}" name="TAMAÑO TOTAL"/>
@@ -420,10 +426,10 @@
   <autoFilter ref="A1:C8" xr:uid="{E677CE87-9CC2-44A2-80DD-F8C765734A03}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{19CB96D7-CE26-433E-892A-12B8F57C529A}" name="JAVASCRIPT"/>
-    <tableColumn id="2" xr3:uid="{0212AED8-199D-4407-87CD-586663F4C305}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{0212AED8-199D-4407-87CD-586663F4C305}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="7">
       <totalsRowFormula>AVERAGE(B2:B3,B5:B7)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0E253FCA-E165-4970-93C9-6285405A1228}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{0E253FCA-E165-4970-93C9-6285405A1228}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="6">
       <totalsRowFormula>AVERAGE(C3:C5,C7:C8)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -432,12 +438,16 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{1458B889-5084-40B2-81E0-9EF7109D3097}" name="Tabla212" displayName="Tabla212" ref="A12:C19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{1458B889-5084-40B2-81E0-9EF7109D3097}" name="Tabla212" displayName="Tabla212" ref="A12:C20" totalsRowCount="1">
   <autoFilter ref="A12:C19" xr:uid="{02F23CEA-217E-44B9-8443-747A51B39175}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3C2AC278-A276-4749-A1F8-093D8C3A2BAC}" name="MODULE"/>
-    <tableColumn id="2" xr3:uid="{F179E60A-90AA-4677-90CE-4E63A40AB2E5}" name="PUNTOS PAGESPEED"/>
-    <tableColumn id="3" xr3:uid="{E7F0B92A-951C-464E-9AF2-42E92270F6BC}" name="TIEMPO TOTAL"/>
+    <tableColumn id="2" xr3:uid="{F179E60A-90AA-4677-90CE-4E63A40AB2E5}" name="PUNTOS PAGESPEED" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(B14:B17,B19)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{E7F0B92A-951C-464E-9AF2-42E92270F6BC}" name="TIEMPO TOTAL" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(C14:C17,C19)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -448,10 +458,10 @@
   <autoFilter ref="A1:C8" xr:uid="{5ABD97B1-5812-4C78-983B-3BE58FD68798}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{307B5A5E-CC29-4CCA-AE91-AAF8343976A9}" name="MODULE"/>
-    <tableColumn id="2" xr3:uid="{784B6B75-E779-4233-9364-1450CCD16C06}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="3">
+    <tableColumn id="2" xr3:uid="{784B6B75-E779-4233-9364-1450CCD16C06}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="5">
       <totalsRowFormula>AVERAGE(B4:B8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{798A7841-41BD-47D2-83AB-BC430BEF564F}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{798A7841-41BD-47D2-83AB-BC430BEF564F}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="4">
       <totalsRowFormula>AVERAGE(C2:C5,C7)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -460,12 +470,16 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{AAB131AE-2211-44E1-9598-55F39BCCD89C}" name="Tabla214" displayName="Tabla214" ref="A12:C19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{AAB131AE-2211-44E1-9598-55F39BCCD89C}" name="Tabla214" displayName="Tabla214" ref="A12:C20" totalsRowCount="1">
   <autoFilter ref="A12:C19" xr:uid="{A9F1EA38-DBE1-4DB4-9562-264A1F9F66F9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2D62D853-1C58-4F05-A99C-6C8BF85EA463}" name="WEBPACK"/>
-    <tableColumn id="2" xr3:uid="{5A8CDC70-8A7E-4ED0-8820-E11EC48013FA}" name="PUNTOS PAGESPEED"/>
-    <tableColumn id="3" xr3:uid="{E93D5F01-D046-4C91-A02A-D3BD5B7030C0}" name="TIEMPO TOTAL"/>
+    <tableColumn id="2" xr3:uid="{5A8CDC70-8A7E-4ED0-8820-E11EC48013FA}" name="PUNTOS PAGESPEED" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(B13:B16,B18:B19)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{E93D5F01-D046-4C91-A02A-D3BD5B7030C0}" name="TIEMPO TOTAL" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(C13:C15,C17:C18)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -476,10 +490,10 @@
   <autoFilter ref="A1:C8" xr:uid="{34251A6F-ECD5-4207-9231-370F356902F6}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E3EB2D14-3EE7-4357-B85C-342F2AF8ABDB}" name="WEBPACK"/>
-    <tableColumn id="2" xr3:uid="{F8C18F40-2707-40E1-BBE7-01CA1F350128}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{F8C18F40-2707-40E1-BBE7-01CA1F350128}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="3">
       <totalsRowFormula>AVERAGE(B3,B5,B6,B7,B8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{377CBE25-FE7B-4CEF-A4C1-0D19CC4B9F88}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{377CBE25-FE7B-4CEF-A4C1-0D19CC4B9F88}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="2">
       <totalsRowFormula>AVERAGE(C3:C4,C6:C8)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -507,8 +521,12 @@
   <autoFilter ref="A12:E18" xr:uid="{06E31837-56BD-4E1F-AD03-3DE55684A45F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D461A526-9D90-4188-A0B0-F7231538D516}" name="PÁGINA"/>
-    <tableColumn id="2" xr3:uid="{5B7B6CF4-9C42-46AE-8CBD-F0DA9F57B252}" name="PUNTOS PAGESPEED"/>
-    <tableColumn id="3" xr3:uid="{B13EC48D-E6F2-4AB5-824E-F92E93699B08}" name="TIEMPO TOTAL"/>
+    <tableColumn id="2" xr3:uid="{5B7B6CF4-9C42-46AE-8CBD-F0DA9F57B252}" name="PUNTOS PAGESPEED" dataDxfId="1">
+      <calculatedColumnFormula>Tabla2[[#Totals],[PUNTOS PAGESPEED]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{B13EC48D-E6F2-4AB5-824E-F92E93699B08}" name="TIEMPO TOTAL" dataDxfId="0">
+      <calculatedColumnFormula>Tabla2[[#Totals],[TIEMPO TOTAL]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="4" xr3:uid="{CC0AD5EF-945F-4455-A18D-5463C47554DB}" name="TAMAÑO TOTAL"/>
     <tableColumn id="5" xr3:uid="{FFBCCE79-423B-4675-88F9-0062BDC645BA}" name="SOLICITUDES"/>
   </tableColumns>
@@ -540,7 +558,7 @@
     <tableColumn id="2" xr3:uid="{DD524206-3874-4DCD-B179-A48B51A4296A}" name="PUNTOS PAGESPEED" totalsRowFunction="custom">
       <totalsRowFormula>AVERAGE(B3,B5,B6,B7,B8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{411C1FE7-EDA6-459C-A60F-461DD2CED01D}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{411C1FE7-EDA6-459C-A60F-461DD2CED01D}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="12">
       <totalsRowFormula>AVERAGE(C3:C6,C8)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -553,7 +571,9 @@
   <autoFilter ref="A12:C19" xr:uid="{6FC7A08D-8A2E-4BB8-B25B-9B27339C37DC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{99B58B2E-F92A-47B9-8D38-1FF557AD0D40}" name="LENGUAJES"/>
-    <tableColumn id="2" xr3:uid="{ABFE2785-A926-4AC0-B935-AEEFC365D87B}" name="PUNTOS PAGESPEED"/>
+    <tableColumn id="2" xr3:uid="{ABFE2785-A926-4AC0-B935-AEEFC365D87B}" name="PUNTOS PAGESPEED" totalsRowFunction="custom">
+      <totalsRowFormula xml:space="preserve"> AVERAGE(B14:B17,B19)</totalsRowFormula>
+    </tableColumn>
     <tableColumn id="3" xr3:uid="{6D010EFD-8B7E-4EC9-AC1E-CC93514CACBC}" name="TIEMPO TOTAL" totalsRowFunction="custom">
       <totalsRowFormula>AVERAGE(C13:C14,C17:C19)</totalsRowFormula>
     </tableColumn>
@@ -567,10 +587,10 @@
   <autoFilter ref="A1:C8" xr:uid="{399A8C92-7F0E-4481-BB47-4882E25108B0}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{825349D6-8038-4658-9BD2-2D21EEC69E10}" name="LENGUAJES"/>
-    <tableColumn id="2" xr3:uid="{85A5ADA4-0E0C-437E-B9AB-30C8E6B9F12B}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="9">
+    <tableColumn id="2" xr3:uid="{85A5ADA4-0E0C-437E-B9AB-30C8E6B9F12B}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="11">
       <totalsRowFormula>AVERAGE(B2,B3,B5,B7,B8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E7E55CF4-5127-4C3A-915A-57C2386514C0}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{E7E55CF4-5127-4C3A-915A-57C2386514C0}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="10">
       <totalsRowFormula>AVERAGE(C4:C8)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -579,12 +599,16 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5C853B3E-3023-46FB-B4DE-E669B9A69CD0}" name="Tabla28" displayName="Tabla28" ref="A12:C19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5C853B3E-3023-46FB-B4DE-E669B9A69CD0}" name="Tabla28" displayName="Tabla28" ref="A12:C20" totalsRowCount="1">
   <autoFilter ref="A12:C19" xr:uid="{B0BDCCB4-8DF6-416D-A793-517ED29E52DF}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CA398945-4ECF-40D2-A475-E0989BF240FD}" name="HTML"/>
-    <tableColumn id="2" xr3:uid="{CBCA9F34-9CF1-4F23-9D74-96D2E0583EB2}" name="PUNTOS PAGESPEED"/>
-    <tableColumn id="3" xr3:uid="{4E7FCE90-5D51-416A-86F4-97A258A45F33}" name="TIEMPO TOTAL"/>
+    <tableColumn id="2" xr3:uid="{CBCA9F34-9CF1-4F23-9D74-96D2E0583EB2}" name="PUNTOS PAGESPEED" totalsRowFunction="custom">
+      <totalsRowFormula xml:space="preserve"> AVERAGE(B13:B14,B16:B17,B19)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{4E7FCE90-5D51-416A-86F4-97A258A45F33}" name="TIEMPO TOTAL" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(C13:C17)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -595,10 +619,10 @@
   <autoFilter ref="A1:C8" xr:uid="{21CDD063-BF88-4351-AF0B-29D5861077FB}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FFE5DC52-F1B5-47E8-B248-4531DA43FEEC}" name="HTML"/>
-    <tableColumn id="2" xr3:uid="{B3D05C71-D6FC-4B90-BAB9-7A06462FD093}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{B3D05C71-D6FC-4B90-BAB9-7A06462FD093}" name="PUNTOS PAGESPEED" totalsRowFunction="custom" dataDxfId="9">
       <totalsRowFormula>AVERAGE(B3:B4,B6:B8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{347FA04E-6676-4CE3-A32F-CF2AD9FD8F07}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{347FA04E-6676-4CE3-A32F-CF2AD9FD8F07}" name="TIEMPO TOTAL (s)" totalsRowFunction="custom" dataDxfId="8">
       <totalsRowFormula>AVERAGE(C3:C6,C8)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -607,12 +631,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{21695041-94E1-43EB-8F9A-0768D9604BBC}" name="Tabla210" displayName="Tabla210" ref="A12:C19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{21695041-94E1-43EB-8F9A-0768D9604BBC}" name="Tabla210" displayName="Tabla210" ref="A12:C20" totalsRowCount="1">
   <autoFilter ref="A12:C19" xr:uid="{1E64F533-1ED5-4481-BDBE-508A94066883}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{075C6FE6-0B7C-46C1-BF92-DCD1C4787C66}" name="JAVASCRIPT"/>
-    <tableColumn id="2" xr3:uid="{A366F5E6-7D35-4E47-BDA3-A237039475AE}" name="PUNTOS PAGESPEED"/>
-    <tableColumn id="3" xr3:uid="{384D79FB-C797-46DC-B4E9-8F3EE9470661}" name="TIEMPO TOTAL"/>
+    <tableColumn id="2" xr3:uid="{A366F5E6-7D35-4E47-BDA3-A237039475AE}" name="PUNTOS PAGESPEED" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(B13:B14,B16,B18:B19)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{384D79FB-C797-46DC-B4E9-8F3EE9470661}" name="TIEMPO TOTAL" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(C13:C16,C18)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -883,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,6 +1086,14 @@
       <c r="A13" t="s">
         <v>3</v>
       </c>
+      <c r="B13">
+        <f>Tabla2[[#Totals],[PUNTOS PAGESPEED]]</f>
+        <v>96</v>
+      </c>
+      <c r="C13">
+        <f>Tabla2[[#Totals],[TIEMPO TOTAL]]</f>
+        <v>0.27200000000000002</v>
+      </c>
       <c r="D13" t="s">
         <v>34</v>
       </c>
@@ -1069,8 +1105,16 @@
       <c r="A14" t="s">
         <v>4</v>
       </c>
+      <c r="B14">
+        <f>Tabla26[[#Totals],[PUNTOS PAGESPEED]]</f>
+        <v>96</v>
+      </c>
+      <c r="C14">
+        <f>Tabla26[[#Totals],[TIEMPO TOTAL]]</f>
+        <v>0.40800000000000003</v>
+      </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <v>11</v>
@@ -1080,8 +1124,16 @@
       <c r="A15" t="s">
         <v>5</v>
       </c>
+      <c r="B15">
+        <f>Tabla210[[#Totals],[PUNTOS PAGESPEED]]</f>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="C15">
+        <f>Tabla28[[#Totals],[TIEMPO TOTAL]]</f>
+        <v>0.69600000000000006</v>
+      </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>25</v>
@@ -1091,8 +1143,16 @@
       <c r="A16" t="s">
         <v>6</v>
       </c>
+      <c r="B16">
+        <f>Tabla210[[#Totals],[PUNTOS PAGESPEED]]</f>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="C16">
+        <f>Tabla210[[#Totals],[TIEMPO TOTAL]]</f>
+        <v>1.008</v>
+      </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16">
         <v>23</v>
@@ -1102,8 +1162,16 @@
       <c r="A17" t="s">
         <v>7</v>
       </c>
+      <c r="B17">
+        <f>Tabla212[[#Totals],[PUNTOS PAGESPEED]]</f>
+        <v>94.8</v>
+      </c>
+      <c r="C17">
+        <f>Tabla212[[#Totals],[TIEMPO TOTAL]]</f>
+        <v>0.30599999999999999</v>
+      </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -1113,8 +1181,16 @@
       <c r="A18" t="s">
         <v>8</v>
       </c>
+      <c r="B18">
+        <f>Tabla214[[#Totals],[PUNTOS PAGESPEED]]</f>
+        <v>96</v>
+      </c>
+      <c r="C18">
+        <f>Tabla214[[#Totals],[TIEMPO TOTAL]]</f>
+        <v>0.38400000000000001</v>
+      </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18">
         <v>12</v>
@@ -1361,7 +1437,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1489,7 +1565,7 @@
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>97</v>
       </c>
       <c r="C13">
@@ -1544,7 +1620,7 @@
       <c r="A18">
         <v>6</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>95</v>
       </c>
       <c r="C18">
@@ -1555,11 +1631,18 @@
       <c r="A19">
         <v>7</v>
       </c>
+      <c r="B19">
+        <v>96</v>
+      </c>
       <c r="C19">
         <v>0.46</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f xml:space="preserve"> AVERAGE(B14:B17,B19)</f>
+        <v>96</v>
+      </c>
       <c r="C20">
         <f>AVERAGE(C13:C14,C17:C19)</f>
         <v>0.40800000000000003</v>
@@ -1577,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7656C94A-2265-47AA-9E4D-D77DC8B281FB}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1708,35 +1791,87 @@
       <c r="A13">
         <v>1</v>
       </c>
+      <c r="B13" s="3">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
+      <c r="B14">
+        <v>76</v>
+      </c>
+      <c r="C14">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
+      <c r="B15" s="2">
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>74</v>
+      </c>
+      <c r="C16">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>74</v>
+      </c>
+      <c r="C17">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7</v>
+      </c>
+      <c r="B19">
+        <v>75</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f xml:space="preserve"> AVERAGE(B13:B14,B16:B17,B19)</f>
+        <v>74.8</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(C13:C17)</f>
+        <v>0.69600000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -1750,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C69C588-5E16-4554-9DBC-1EDDA8A20D4C}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1881,35 +2016,87 @@
       <c r="A13">
         <v>1</v>
       </c>
+      <c r="B13">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
+      <c r="B14">
+        <v>76</v>
+      </c>
+      <c r="C14">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
+      <c r="B15" s="2">
+        <v>79</v>
+      </c>
+      <c r="C15">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>72</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>75</v>
+      </c>
+      <c r="C18">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7</v>
+      </c>
+      <c r="B19">
+        <v>77</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f>AVERAGE(B13:B14,B16,B18:B19)</f>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(C13:C16,C18)</f>
+        <v>1.008</v>
       </c>
     </row>
   </sheetData>
@@ -1923,10 +2110,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9634EF25-147F-4080-9C6B-BF3D2C41723F}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2054,35 +2241,87 @@
       <c r="A13">
         <v>1</v>
       </c>
+      <c r="B13" s="2">
+        <v>92</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
+      <c r="B14">
+        <v>96</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
+      <c r="B15">
+        <v>94</v>
+      </c>
+      <c r="C15">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>93</v>
+      </c>
+      <c r="C16">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>95</v>
+      </c>
+      <c r="C17">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>97</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7</v>
+      </c>
+      <c r="B19">
+        <v>96</v>
+      </c>
+      <c r="C19">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f>AVERAGE(B14:B17,B19)</f>
+        <v>94.8</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(C14:C17,C19)</f>
+        <v>0.30599999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2096,10 +2335,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3AE70-8CE6-491B-8933-CCAD6915CF91}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2227,35 +2466,87 @@
       <c r="A13">
         <v>1</v>
       </c>
+      <c r="B13">
+        <v>96</v>
+      </c>
+      <c r="C13">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
+      <c r="B14">
+        <v>96</v>
+      </c>
+      <c r="C14">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
+      <c r="B15">
+        <v>96</v>
+      </c>
+      <c r="C15">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>96</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>97</v>
+      </c>
+      <c r="C17">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>96</v>
+      </c>
+      <c r="C18">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7</v>
+      </c>
+      <c r="B19">
+        <v>96</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f>AVERAGE(B13:B16,B18:B19)</f>
+        <v>96</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(C13:C15,C17:C18)</f>
+        <v>0.38400000000000001</v>
       </c>
     </row>
   </sheetData>
